--- a/Budget and What-If Analysis/What-If Analysis.xlsx
+++ b/Budget and What-If Analysis/What-If Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Course Technology\Portfolio-Projects\Budget and What-If Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2472F6-D46B-4405-B9DB-EB4BBAF662BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69904736-3B79-4AA0-9A82-B5244D604B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -552,14 +552,14 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.65">
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ref="C9:D15" si="0">B9*$C$6</f>
+        <f t="shared" ref="C9:C15" si="0">B9*$C$6</f>
         <v>40000</v>
       </c>
       <c r="D9" s="9">
@@ -675,7 +675,7 @@
         <v>6000</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ref="D10:D15" si="2">B11*$D$6</f>
+        <f t="shared" ref="D11:D15" si="2">B11*$D$6</f>
         <v>9000</v>
       </c>
       <c r="E11" s="9">
@@ -864,7 +864,7 @@
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BKYtHNlmKmFzvoL/Q6JTO4ZT7CKXQSgMsU1Cvh8PHNCopAWLBTCWqZsXFyMB5STc2MhfS+WGi17wnTFV1EI+eA==" saltValue="0khs4PmSyjvtubdXFzTkoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xKOVCyilpvnvxxBSlPeC64R2OzPb5/uaVJbYfTXHuTqZ+NQBuKkPtnc9Igs25cx5IowImPKTIc3dUrafXuL2cg==" saltValue="UDL5D03+MzgWjS4LGBzdaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
